--- a/Plancheck/check_protocol/STEC poumon3F.xlsx
+++ b/Plancheck/check_protocol/STEC poumon3F.xlsx
@@ -2248,7 +2248,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
